--- a/p_parameters/Version control-DAPs/additional_concepts_UOSL_20230323.xlsx
+++ b/p_parameters/Version control-DAPs/additional_concepts_UOSL_20230323.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/Version control-DAPs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2EC6A5-0379-9D41-981A-D555AC766887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACC7367-D935-2E45-BBDD-EECE9033F17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="980" windowWidth="27640" windowHeight="15940" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
+    <workbookView xWindow="1160" yWindow="820" windowWidth="27640" windowHeight="15940" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t>table</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>UOSL</t>
+  </si>
+  <si>
+    <t>Migraine_medicines</t>
   </si>
 </sst>
 </file>
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -896,6 +899,29 @@
         <v>45</v>
       </c>
     </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
